--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\Research\Research 5th Sem\ANN GA in Turning Navriti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satwi\Desktop\Injection Moulding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EA0121-349B-4105-980D-304F77A6B3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA243528-D34D-40F6-B9F6-550D4D02C970}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{63A199D6-A8FC-456B-BD98-97C1E3CE5E76}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{63A199D6-A8FC-456B-BD98-97C1E3CE5E76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -397,15 +388,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E31EF-D8ED-48CF-8E13-9CA274CC9497}">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -425,7 +416,7 @@
         <v>-10.107200000000001</v>
       </c>
       <c r="G1">
-        <f>IF(A1=0,$L$2,IF(A1=1,$M$2,IF(A1=2,$N$2,0)))</f>
+        <f t="shared" ref="G1:G32" si="0">IF(A1=0,$L$2,IF(A1=1,$M$2,IF(A1=2,$N$2,0)))</f>
         <v>140</v>
       </c>
       <c r="H1">
@@ -440,8 +431,11 @@
         <f>IF(D1=0,$L$5,IF(D1=1,$M$5,IF(D1=2,$N$5,0)))</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -461,23 +455,23 @@
         <v>-10.4139</v>
       </c>
       <c r="G2">
-        <f>IF(A2=0,$L$2,IF(A2=1,$M$2,IF(A2=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H65" si="0">IF(B2=0,$L$3,IF(B2=1,$M$3,IF(B2=2,$N$3,0)))</f>
+        <f t="shared" ref="H2:H65" si="1">IF(B2=0,$L$3,IF(B2=1,$M$3,IF(B2=2,$N$3,0)))</f>
         <v>60</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I65" si="1">IF(C2=0,$L$4,IF(C2=1,$M$4,IF(C2=2,$N$4,0)))</f>
+        <f t="shared" ref="I2:I65" si="2">IF(C2=0,$L$4,IF(C2=1,$M$4,IF(C2=2,$N$4,0)))</f>
         <v>550</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J65" si="2">IF(D2=0,$L$5,IF(D2=1,$M$5,IF(D2=2,$N$5,0)))</f>
+        <f t="shared" ref="J2:J65" si="3">IF(D2=0,$L$5,IF(D2=1,$M$5,IF(D2=2,$N$5,0)))</f>
         <v>15</v>
       </c>
-      <c r="K2" t="s">
-        <v>0</v>
+      <c r="K2">
+        <v>3.2</v>
       </c>
       <c r="L2">
         <v>140</v>
@@ -488,8 +482,11 @@
       <c r="N2">
         <v>160</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -509,23 +506,23 @@
         <v>-12.266</v>
       </c>
       <c r="G3">
-        <f>IF(A3=0,$L$2,IF(A3=1,$M$2,IF(A3=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K3" t="s">
-        <v>1</v>
+      <c r="K3">
+        <v>4.0999999999999996</v>
       </c>
       <c r="L3">
         <v>60</v>
@@ -536,8 +533,11 @@
       <c r="N3">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -557,23 +557,23 @@
         <v>-12.2789</v>
       </c>
       <c r="G4">
-        <f>IF(A4=0,$L$2,IF(A4=1,$M$2,IF(A4=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K4" t="s">
-        <v>2</v>
+      <c r="K4">
+        <v>3.8</v>
       </c>
       <c r="L4">
         <v>550</v>
@@ -584,8 +584,11 @@
       <c r="N4">
         <v>750</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -605,23 +608,23 @@
         <v>-11.959</v>
       </c>
       <c r="G5">
-        <f>IF(A5=0,$L$2,IF(A5=1,$M$2,IF(A5=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="K5" t="s">
-        <v>3</v>
+      <c r="K5">
+        <v>3.6</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -632,8 +635,11 @@
       <c r="N5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -653,23 +659,26 @@
         <v>-13.364599999999999</v>
       </c>
       <c r="G6">
-        <f>IF(A6=0,$L$2,IF(A6=1,$M$2,IF(A6=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -689,23 +698,26 @@
         <v>-10.170299999999999</v>
       </c>
       <c r="G7">
-        <f>IF(A7=0,$L$2,IF(A7=1,$M$2,IF(A7=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -725,23 +737,26 @@
         <v>-14.533200000000001</v>
       </c>
       <c r="G8">
-        <f>IF(A8=0,$L$2,IF(A8=1,$M$2,IF(A8=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -761,23 +776,26 @@
         <v>-14.124599999999999</v>
       </c>
       <c r="G9">
-        <f>IF(A9=0,$L$2,IF(A9=1,$M$2,IF(A9=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -797,23 +815,26 @@
         <v>-10.3141</v>
       </c>
       <c r="G10">
-        <f>IF(A10=0,$L$2,IF(A10=1,$M$2,IF(A10=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -833,23 +854,26 @@
         <v>-12.148400000000001</v>
       </c>
       <c r="G11">
-        <f>IF(A11=0,$L$2,IF(A11=1,$M$2,IF(A11=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -869,23 +893,26 @@
         <v>-12.624499999999999</v>
       </c>
       <c r="G12">
-        <f>IF(A12=0,$L$2,IF(A12=1,$M$2,IF(A12=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -905,23 +932,26 @@
         <v>-13.6829</v>
       </c>
       <c r="G13">
-        <f>IF(A13=0,$L$2,IF(A13=1,$M$2,IF(A13=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -941,23 +971,26 @@
         <v>-11.1227</v>
       </c>
       <c r="G14">
-        <f>IF(A14=0,$L$2,IF(A14=1,$M$2,IF(A14=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -977,23 +1010,26 @@
         <v>-10.4922</v>
       </c>
       <c r="G15">
-        <f>IF(A15=0,$L$2,IF(A15=1,$M$2,IF(A15=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1013,23 +1049,26 @@
         <v>-8.2282200000000003</v>
       </c>
       <c r="G16">
-        <f>IF(A16=0,$L$2,IF(A16=1,$M$2,IF(A16=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1049,23 +1088,26 @@
         <v>-12.588800000000001</v>
       </c>
       <c r="G17">
-        <f>IF(A17=0,$L$2,IF(A17=1,$M$2,IF(A17=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1085,23 +1127,26 @@
         <v>-11.832700000000001</v>
       </c>
       <c r="G18">
-        <f>IF(A18=0,$L$2,IF(A18=1,$M$2,IF(A18=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1121,23 +1166,26 @@
         <v>-7.9588000000000001</v>
       </c>
       <c r="G19">
-        <f>IF(A19=0,$L$2,IF(A19=1,$M$2,IF(A19=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1157,23 +1205,26 @@
         <v>-9.3449799999999996</v>
       </c>
       <c r="G20">
-        <f>IF(A20=0,$L$2,IF(A20=1,$M$2,IF(A20=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1193,23 +1244,26 @@
         <v>-13.5122</v>
       </c>
       <c r="G21">
-        <f>IF(A21=0,$L$2,IF(A21=1,$M$2,IF(A21=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1229,23 +1283,26 @@
         <v>-14.240600000000001</v>
       </c>
       <c r="G22">
-        <f>IF(A22=0,$L$2,IF(A22=1,$M$2,IF(A22=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1265,23 +1322,26 @@
         <v>-11.6286</v>
       </c>
       <c r="G23">
-        <f>IF(A23=0,$L$2,IF(A23=1,$M$2,IF(A23=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1301,23 +1361,26 @@
         <v>-11.9451</v>
       </c>
       <c r="G24">
-        <f>IF(A24=0,$L$2,IF(A24=1,$M$2,IF(A24=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1337,23 +1400,26 @@
         <v>-13.793100000000001</v>
       </c>
       <c r="G25">
-        <f>IF(A25=0,$L$2,IF(A25=1,$M$2,IF(A25=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1373,23 +1439,26 @@
         <v>-12.266</v>
       </c>
       <c r="G26">
-        <f>IF(A26=0,$L$2,IF(A26=1,$M$2,IF(A26=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1409,23 +1478,26 @@
         <v>-11.1059</v>
       </c>
       <c r="G27">
-        <f>IF(A27=0,$L$2,IF(A27=1,$M$2,IF(A27=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1445,23 +1517,26 @@
         <v>-12.2789</v>
       </c>
       <c r="G28">
-        <f>IF(A28=0,$L$2,IF(A28=1,$M$2,IF(A28=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1481,23 +1556,26 @@
         <v>-12.588800000000001</v>
       </c>
       <c r="G29">
-        <f>IF(A29=0,$L$2,IF(A29=1,$M$2,IF(A29=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1517,23 +1595,26 @@
         <v>-14.7494</v>
       </c>
       <c r="G30">
-        <f>IF(A30=0,$L$2,IF(A30=1,$M$2,IF(A30=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1553,23 +1634,26 @@
         <v>-12.6007</v>
       </c>
       <c r="G31">
-        <f>IF(A31=0,$L$2,IF(A31=1,$M$2,IF(A31=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1589,23 +1673,26 @@
         <v>-13.263400000000001</v>
       </c>
       <c r="G32">
-        <f>IF(A32=0,$L$2,IF(A32=1,$M$2,IF(A32=2,$N$2,0)))</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1625,23 +1712,26 @@
         <v>-13.8917</v>
       </c>
       <c r="G33">
-        <f>IF(A33=0,$L$2,IF(A33=1,$M$2,IF(A33=2,$N$2,0)))</f>
+        <f t="shared" ref="G33:G64" si="4">IF(A33=0,$L$2,IF(A33=1,$M$2,IF(A33=2,$N$2,0)))</f>
         <v>150</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1661,23 +1751,26 @@
         <v>-8.6332299999999993</v>
       </c>
       <c r="G34">
-        <f>IF(A34=0,$L$2,IF(A34=1,$M$2,IF(A34=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1697,23 +1790,26 @@
         <v>-12.855600000000001</v>
       </c>
       <c r="G35">
-        <f>IF(A35=0,$L$2,IF(A35=1,$M$2,IF(A35=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1733,23 +1829,26 @@
         <v>-12.430400000000001</v>
       </c>
       <c r="G36">
-        <f>IF(A36=0,$L$2,IF(A36=1,$M$2,IF(A36=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1769,23 +1868,26 @@
         <v>-13.6267</v>
       </c>
       <c r="G37">
-        <f>IF(A37=0,$L$2,IF(A37=1,$M$2,IF(A37=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1805,23 +1907,26 @@
         <v>-11.5229</v>
       </c>
       <c r="G38">
-        <f>IF(A38=0,$L$2,IF(A38=1,$M$2,IF(A38=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1841,23 +1946,26 @@
         <v>-11.2385</v>
       </c>
       <c r="G39">
-        <f>IF(A39=0,$L$2,IF(A39=1,$M$2,IF(A39=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1877,23 +1985,26 @@
         <v>-10.7372</v>
       </c>
       <c r="G40">
-        <f>IF(A40=0,$L$2,IF(A40=1,$M$2,IF(A40=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1913,23 +2024,26 @@
         <v>-12.2531</v>
       </c>
       <c r="G41">
-        <f>IF(A41=0,$L$2,IF(A41=1,$M$2,IF(A41=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1949,23 +2063,26 @@
         <v>-13.9794</v>
       </c>
       <c r="G42">
-        <f>IF(A42=0,$L$2,IF(A42=1,$M$2,IF(A42=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1985,23 +2102,26 @@
         <v>-11.8041</v>
       </c>
       <c r="G43">
-        <f>IF(A43=0,$L$2,IF(A43=1,$M$2,IF(A43=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2021,23 +2141,26 @@
         <v>-12.2272</v>
       </c>
       <c r="G44">
-        <f>IF(A44=0,$L$2,IF(A44=1,$M$2,IF(A44=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2057,23 +2180,26 @@
         <v>-13.9794</v>
       </c>
       <c r="G45">
-        <f>IF(A45=0,$L$2,IF(A45=1,$M$2,IF(A45=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2093,23 +2219,26 @@
         <v>-11.687900000000001</v>
       </c>
       <c r="G46">
-        <f>IF(A46=0,$L$2,IF(A46=1,$M$2,IF(A46=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2129,23 +2258,26 @@
         <v>-9.9343599999999999</v>
       </c>
       <c r="G47">
-        <f>IF(A47=0,$L$2,IF(A47=1,$M$2,IF(A47=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2165,23 +2297,26 @@
         <v>-11.4922</v>
       </c>
       <c r="G48">
-        <f>IF(A48=0,$L$2,IF(A48=1,$M$2,IF(A48=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2201,23 +2336,26 @@
         <v>-10.453200000000001</v>
       </c>
       <c r="G49">
-        <f>IF(A49=0,$L$2,IF(A49=1,$M$2,IF(A49=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2237,23 +2375,26 @@
         <v>-7.5966800000000001</v>
       </c>
       <c r="G50">
-        <f>IF(A50=0,$L$2,IF(A50=1,$M$2,IF(A50=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2273,23 +2414,26 @@
         <v>-9.4200800000000005</v>
       </c>
       <c r="G51">
-        <f>IF(A51=0,$L$2,IF(A51=1,$M$2,IF(A51=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2309,23 +2453,26 @@
         <v>-11.6137</v>
       </c>
       <c r="G52">
-        <f>IF(A52=0,$L$2,IF(A52=1,$M$2,IF(A52=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2345,23 +2492,26 @@
         <v>-11.8752</v>
       </c>
       <c r="G53">
-        <f>IF(A53=0,$L$2,IF(A53=1,$M$2,IF(A53=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2381,23 +2531,26 @@
         <v>-11.8893</v>
       </c>
       <c r="G54">
-        <f>IF(A54=0,$L$2,IF(A54=1,$M$2,IF(A54=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="H54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2417,23 +2570,26 @@
         <v>-12.6007</v>
       </c>
       <c r="G55">
-        <f>IF(A55=0,$L$2,IF(A55=1,$M$2,IF(A55=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="H55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2453,23 +2609,26 @@
         <v>-11.189299999999999</v>
       </c>
       <c r="G56">
-        <f>IF(A56=0,$L$2,IF(A56=1,$M$2,IF(A56=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="H56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -2489,23 +2648,26 @@
         <v>-12.6007</v>
       </c>
       <c r="G57">
-        <f>IF(A57=0,$L$2,IF(A57=1,$M$2,IF(A57=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="H57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -2525,23 +2687,26 @@
         <v>-12.1219</v>
       </c>
       <c r="G58">
-        <f>IF(A58=0,$L$2,IF(A58=1,$M$2,IF(A58=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="H58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2561,23 +2726,26 @@
         <v>-14.7567</v>
       </c>
       <c r="G59">
-        <f>IF(A59=0,$L$2,IF(A59=1,$M$2,IF(A59=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="H59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2597,23 +2765,26 @@
         <v>-12.068300000000001</v>
       </c>
       <c r="G60">
-        <f>IF(A60=0,$L$2,IF(A60=1,$M$2,IF(A60=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="H60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="J60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2633,23 +2804,26 @@
         <v>-12.7989</v>
       </c>
       <c r="G61">
-        <f>IF(A61=0,$L$2,IF(A61=1,$M$2,IF(A61=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="H61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -2669,23 +2843,26 @@
         <v>-11.3354</v>
       </c>
       <c r="G62">
-        <f>IF(A62=0,$L$2,IF(A62=1,$M$2,IF(A62=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="H62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K62">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2705,23 +2882,26 @@
         <v>-14.0312</v>
       </c>
       <c r="G63">
-        <f>IF(A63=0,$L$2,IF(A63=1,$M$2,IF(A63=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="H63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="J63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2741,23 +2921,26 @@
         <v>-10.8279</v>
       </c>
       <c r="G64">
-        <f>IF(A64=0,$L$2,IF(A64=1,$M$2,IF(A64=2,$N$2,0)))</f>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="H64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2777,23 +2960,26 @@
         <v>-10.7555</v>
       </c>
       <c r="G65">
-        <f>IF(A65=0,$L$2,IF(A65=1,$M$2,IF(A65=2,$N$2,0)))</f>
+        <f t="shared" ref="G65:G81" si="5">IF(A65=0,$L$2,IF(A65=1,$M$2,IF(A65=2,$N$2,0)))</f>
         <v>160</v>
       </c>
       <c r="H65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="J65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2813,23 +2999,26 @@
         <v>-10.55</v>
       </c>
       <c r="G66">
-        <f>IF(A66=0,$L$2,IF(A66=1,$M$2,IF(A66=2,$N$2,0)))</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H81" si="3">IF(B66=0,$L$3,IF(B66=1,$M$3,IF(B66=2,$N$3,0)))</f>
+        <f t="shared" ref="H66:H81" si="6">IF(B66=0,$L$3,IF(B66=1,$M$3,IF(B66=2,$N$3,0)))</f>
         <v>65</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:I81" si="4">IF(C66=0,$L$4,IF(C66=1,$M$4,IF(C66=2,$N$4,0)))</f>
+        <f t="shared" ref="I66:I81" si="7">IF(C66=0,$L$4,IF(C66=1,$M$4,IF(C66=2,$N$4,0)))</f>
         <v>550</v>
       </c>
       <c r="J66">
-        <f t="shared" ref="J66:J81" si="5">IF(D66=0,$L$5,IF(D66=1,$M$5,IF(D66=2,$N$5,0)))</f>
+        <f t="shared" ref="J66:J81" si="8">IF(D66=0,$L$5,IF(D66=1,$M$5,IF(D66=2,$N$5,0)))</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2849,23 +3038,26 @@
         <v>-10.951700000000001</v>
       </c>
       <c r="G67">
-        <f>IF(A67=0,$L$2,IF(A67=1,$M$2,IF(A67=2,$N$2,0)))</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="H67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="I67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>650</v>
       </c>
       <c r="J67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2885,23 +3077,26 @@
         <v>-9.6378799999999991</v>
       </c>
       <c r="G68">
-        <f>IF(A68=0,$L$2,IF(A68=1,$M$2,IF(A68=2,$N$2,0)))</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="H68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="I68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>650</v>
       </c>
       <c r="J68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2921,23 +3116,26 @@
         <v>-11.5381</v>
       </c>
       <c r="G69">
-        <f>IF(A69=0,$L$2,IF(A69=1,$M$2,IF(A69=2,$N$2,0)))</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="H69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="I69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>650</v>
       </c>
       <c r="J69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -2957,23 +3155,26 @@
         <v>-11.8893</v>
       </c>
       <c r="G70">
-        <f>IF(A70=0,$L$2,IF(A70=1,$M$2,IF(A70=2,$N$2,0)))</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="H70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="I70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>750</v>
       </c>
       <c r="J70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K70">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -2993,23 +3194,26 @@
         <v>-11.4457</v>
       </c>
       <c r="G71">
-        <f>IF(A71=0,$L$2,IF(A71=1,$M$2,IF(A71=2,$N$2,0)))</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="H71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="I71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>750</v>
       </c>
       <c r="J71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -3029,23 +3233,26 @@
         <v>-11.775399999999999</v>
       </c>
       <c r="G72">
-        <f>IF(A72=0,$L$2,IF(A72=1,$M$2,IF(A72=2,$N$2,0)))</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="H72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="I72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>750</v>
       </c>
       <c r="J72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -3065,23 +3272,26 @@
         <v>-9.9782299999999999</v>
       </c>
       <c r="G73">
-        <f>IF(A73=0,$L$2,IF(A73=1,$M$2,IF(A73=2,$N$2,0)))</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="H73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="I73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>550</v>
       </c>
       <c r="J73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -3101,23 +3311,26 @@
         <v>-11.2385</v>
       </c>
       <c r="G74">
-        <f>IF(A74=0,$L$2,IF(A74=1,$M$2,IF(A74=2,$N$2,0)))</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="H74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="I74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>550</v>
       </c>
       <c r="J74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -3137,23 +3350,26 @@
         <v>-10.681900000000001</v>
       </c>
       <c r="G75">
-        <f>IF(A75=0,$L$2,IF(A75=1,$M$2,IF(A75=2,$N$2,0)))</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="H75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="I75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>550</v>
       </c>
       <c r="J75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -3173,23 +3389,26 @@
         <v>-13.364599999999999</v>
       </c>
       <c r="G76">
-        <f>IF(A76=0,$L$2,IF(A76=1,$M$2,IF(A76=2,$N$2,0)))</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="H76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="I76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>650</v>
       </c>
       <c r="J76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -3209,23 +3428,26 @@
         <v>-11.172700000000001</v>
       </c>
       <c r="G77">
-        <f>IF(A77=0,$L$2,IF(A77=1,$M$2,IF(A77=2,$N$2,0)))</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="H77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="I77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>650</v>
       </c>
       <c r="J77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -3245,23 +3467,26 @@
         <v>-9.3196600000000007</v>
       </c>
       <c r="G78">
-        <f>IF(A78=0,$L$2,IF(A78=1,$M$2,IF(A78=2,$N$2,0)))</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="H78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="I78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>650</v>
       </c>
       <c r="J78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -3281,23 +3506,26 @@
         <v>-10.293799999999999</v>
       </c>
       <c r="G79">
-        <f>IF(A79=0,$L$2,IF(A79=1,$M$2,IF(A79=2,$N$2,0)))</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="H79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="I79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>750</v>
       </c>
       <c r="J79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -3317,23 +3545,26 @@
         <v>-11.8893</v>
       </c>
       <c r="G80">
-        <f>IF(A80=0,$L$2,IF(A80=1,$M$2,IF(A80=2,$N$2,0)))</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="H80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="I80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>750</v>
       </c>
       <c r="J80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -3353,20 +3584,23 @@
         <v>-10.4727</v>
       </c>
       <c r="G81">
-        <f>IF(A81=0,$L$2,IF(A81=1,$M$2,IF(A81=2,$N$2,0)))</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="H81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="I81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>750</v>
       </c>
       <c r="J81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
+      </c>
+      <c r="K81">
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>
